--- a/OSM features.xlsx
+++ b/OSM features.xlsx
@@ -8,8 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="main_index" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="pie_index" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="pie_index_copy" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2919" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="1104">
   <si>
     <t xml:space="preserve">subcategory</t>
   </si>
@@ -83,15 +84,15 @@
     <t xml:space="preserve">A place selling beer and other alcoholic drinks; may also provide food or accommodation (UK). See description of amenity=bar and amenity=pub for distinction between bar and pub</t>
   </si>
   <si>
+    <t xml:space="preserve">restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restaurant (not fast food, see amenity=fast_food). The kind of food served can be tagged with cuisine=* and diet:*=*.</t>
+  </si>
+  <si>
     <t xml:space="preserve">education</t>
   </si>
   <si>
-    <t xml:space="preserve">restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurant (not fast food, see amenity=fast_food). The kind of food served can be tagged with cuisine=* and diet:*=*.</t>
-  </si>
-  <si>
     <t xml:space="preserve">college</t>
   </si>
   <si>
@@ -182,15 +183,15 @@
     <t xml:space="preserve">A university campus: an institute of higher education</t>
   </si>
   <si>
+    <t xml:space="preserve">transportation</t>
+  </si>
+  <si>
     <t xml:space="preserve">bicycle_parking</t>
   </si>
   <si>
     <t xml:space="preserve">Parking for bicycles</t>
   </si>
   <si>
-    <t xml:space="preserve">transportation</t>
-  </si>
-  <si>
     <t xml:space="preserve">bicycle_repair_station</t>
   </si>
   <si>
@@ -3299,6 +3300,24 @@
     <t xml:space="preserve">pie_cat</t>
   </si>
   <si>
+    <t xml:space="preserve">commercial buildings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairground area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">industrial area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">residential buildings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retail area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">institutional area</t>
+  </si>
+  <si>
     <t xml:space="preserve">agriculture</t>
   </si>
   <si>
@@ -3312,6 +3331,9 @@
   </si>
   <si>
     <t xml:space="preserve">nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">car amenities</t>
   </si>
 </sst>
 </file>
@@ -3421,8 +3443,8 @@
   </sheetPr>
   <dimension ref="A1:E859"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A423" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B400" activeCellId="0" sqref="B400"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A202" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B263" activeCellId="0" sqref="B263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3574,21 +3596,21 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>5</v>
@@ -3602,7 +3624,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>5</v>
@@ -3616,7 +3638,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>5</v>
@@ -3630,12 +3652,12 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>5</v>
@@ -3649,7 +3671,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>5</v>
@@ -3663,7 +3685,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>5</v>
@@ -3677,7 +3699,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>5</v>
@@ -3691,12 +3713,12 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>5</v>
@@ -3710,7 +3732,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>5</v>
@@ -3724,7 +3746,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>5</v>
@@ -3738,7 +3760,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>5</v>
@@ -3752,7 +3774,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>5</v>
@@ -3766,7 +3788,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>5</v>
@@ -3780,7 +3802,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>5</v>
@@ -3794,7 +3816,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>5</v>
@@ -3807,19 +3829,22 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>53</v>
+      </c>
       <c r="B34" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>5</v>
@@ -3833,12 +3858,12 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>5</v>
@@ -3852,12 +3877,12 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>5</v>
@@ -3871,7 +3896,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>5</v>
@@ -3885,12 +3910,12 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>5</v>
@@ -3904,7 +3929,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>5</v>
@@ -3918,12 +3943,12 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>5</v>
@@ -3937,12 +3962,12 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>5</v>
@@ -3956,7 +3981,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>5</v>
@@ -3970,12 +3995,12 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>5</v>
@@ -3989,7 +4014,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>5</v>
@@ -4003,12 +4028,12 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>5</v>
@@ -4022,12 +4047,12 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>5</v>
@@ -4041,7 +4066,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>5</v>
@@ -4055,12 +4080,12 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>5</v>
@@ -4074,12 +4099,12 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>5</v>
@@ -4093,7 +4118,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>5</v>
@@ -4107,12 +4132,12 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>5</v>
@@ -4126,12 +4151,12 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>5</v>
@@ -4148,12 +4173,12 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>5</v>
@@ -4167,12 +4192,12 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>5</v>
@@ -4186,12 +4211,12 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>5</v>
@@ -6396,7 +6421,7 @@
         <v>292</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D262" s="0" t="s">
         <v>391</v>
@@ -7131,7 +7156,7 @@
         <v>493</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D323" s="0" t="s">
         <v>496</v>
@@ -7487,7 +7512,7 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B362" s="0" t="s">
         <v>493</v>
@@ -7501,7 +7526,7 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B363" s="0" t="s">
         <v>493</v>
@@ -7515,12 +7540,12 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B365" s="0" t="s">
         <v>493</v>
@@ -7534,7 +7559,7 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B366" s="0" t="s">
         <v>493</v>
@@ -7548,7 +7573,7 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B367" s="0" t="s">
         <v>493</v>
@@ -12241,10 +12266,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D174"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B178" activeCellId="0" sqref="B178"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12268,6 +12293,2462 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="D188" s="0" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="D191" s="0" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="D192" s="0" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="D193" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="D195" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="D197" s="0" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D200" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D201" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D202" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D204" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D205" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D206" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D207" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D209" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D210" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D211" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D212" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D213" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D214" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D215" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D216" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="D218" s="0" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="D219" s="0" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="D220" s="0" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D221" s="0" t="s">
+        <v>443</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D191"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>331</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -12293,13 +14774,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>493</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>496</v>
@@ -12347,1234 +14828,1248 @@
         <v>500</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>501</v>
+      </c>
+    </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>339</v>
+        <v>502</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>493</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>339</v>
+        <v>502</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>502</v>
+        <v>1098</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>493</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>506</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1092</v>
+        <v>1098</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>508</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1092</v>
+        <v>1098</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>510</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1092</v>
+        <v>1098</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>512</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1092</v>
+        <v>1098</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>513</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1092</v>
+        <v>1098</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>493</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>517</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1092</v>
+        <v>1099</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>519</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1092</v>
+        <v>1098</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>493</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>523</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>1092</v>
+        <v>1098</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>525</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>1092</v>
+        <v>1098</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>527</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>1092</v>
+        <v>1098</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>529</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B41" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B40" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C40" s="0" t="s">
         <v>530</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D40" s="0" t="s">
         <v>531</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>1094</v>
+        <v>1100</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>550</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>551</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>1094</v>
+        <v>1100</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>1094</v>
+        <v>568</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>493</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>568</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>555</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>1094</v>
+        <v>1100</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>559</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>1094</v>
+        <v>1100</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>560</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>1094</v>
+        <v>1100</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>562</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>1094</v>
+        <v>563</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>563</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>563</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>564</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>1094</v>
+        <v>1100</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>565</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>1094</v>
+        <v>1100</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>567</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>1094</v>
+        <v>568</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>568</v>
+        <v>1100</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>493</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B65" s="0" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B66" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="C65" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>571</v>
+      <c r="C66" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>493</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>493</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="C69" s="0" t="s">
         <v>464</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>1093</v>
+        <v>1102</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>640</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>659</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>660</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>694</v>
+        <v>661</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>661</v>
+        <v>697</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>640</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>697</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>698</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>1096</v>
+        <v>572</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>640</v>
+        <v>572</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>738</v>
+        <v>573</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>739</v>
+        <v>574</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13585,49 +16080,49 @@
         <v>572</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="B123" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>576</v>
-      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>572</v>
       </c>
+      <c r="B124" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="B125" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>577</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>578</v>
-      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>572</v>
       </c>
+      <c r="B126" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
@@ -13637,30 +16132,30 @@
         <v>572</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="B128" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>581</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>582</v>
-      </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>572</v>
       </c>
+      <c r="B129" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
@@ -13670,10 +16165,10 @@
         <v>572</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13684,10 +16179,10 @@
         <v>572</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13698,30 +16193,30 @@
         <v>572</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="B133" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>589</v>
-      </c>
-      <c r="D133" s="0" t="s">
-        <v>590</v>
-      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>572</v>
       </c>
+      <c r="B134" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
@@ -13731,106 +16226,106 @@
         <v>572</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="B136" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="C136" s="0" t="s">
-        <v>593</v>
-      </c>
-      <c r="D136" s="0" t="s">
-        <v>594</v>
-      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>572</v>
       </c>
+      <c r="B137" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="B138" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="C138" s="0" t="s">
-        <v>595</v>
-      </c>
-      <c r="D138" s="0" t="s">
-        <v>596</v>
-      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>572</v>
       </c>
+      <c r="B139" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="B140" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="C140" s="0" t="s">
-        <v>597</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>598</v>
-      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>572</v>
       </c>
+      <c r="B141" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="B142" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="C142" s="0" t="s">
-        <v>599</v>
-      </c>
-      <c r="D142" s="0" t="s">
-        <v>600</v>
-      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>572</v>
       </c>
+      <c r="B143" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="B144" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="C144" s="0" t="s">
-        <v>601</v>
-      </c>
-      <c r="D144" s="0" t="s">
-        <v>602</v>
-      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>572</v>
       </c>
+      <c r="B145" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
@@ -13840,10 +16335,10 @@
         <v>572</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13854,10 +16349,10 @@
         <v>572</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13868,68 +16363,68 @@
         <v>572</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="B149" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="C149" s="0" t="s">
-        <v>609</v>
-      </c>
-      <c r="D149" s="0" t="s">
-        <v>610</v>
-      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>572</v>
       </c>
+      <c r="B150" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="B151" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="C151" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="D151" s="0" t="s">
-        <v>612</v>
-      </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>572</v>
       </c>
+      <c r="B152" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="B153" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="C153" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="D153" s="0" t="s">
-        <v>614</v>
-      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>572</v>
       </c>
+      <c r="B154" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
@@ -13939,106 +16434,106 @@
         <v>572</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="B156" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="C156" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="D156" s="0" t="s">
-        <v>618</v>
-      </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>572</v>
       </c>
+      <c r="B157" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="B158" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="C158" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="D158" s="0" t="s">
-        <v>620</v>
-      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>572</v>
       </c>
+      <c r="B159" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="B160" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="C160" s="0" t="s">
-        <v>621</v>
-      </c>
-      <c r="D160" s="0" t="s">
-        <v>622</v>
-      </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>572</v>
       </c>
+      <c r="B161" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="B162" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="C162" s="0" t="s">
-        <v>623</v>
-      </c>
-      <c r="D162" s="0" t="s">
-        <v>624</v>
-      </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>572</v>
       </c>
+      <c r="B163" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="B164" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="C164" s="0" t="s">
-        <v>625</v>
-      </c>
-      <c r="D164" s="0" t="s">
-        <v>626</v>
-      </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>572</v>
       </c>
+      <c r="B165" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
@@ -14048,10 +16543,10 @@
         <v>572</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14062,10 +16557,10 @@
         <v>572</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>423</v>
+        <v>629</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14076,49 +16571,49 @@
         <v>572</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="B169" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="C169" s="0" t="s">
-        <v>631</v>
-      </c>
-      <c r="D169" s="0" t="s">
-        <v>632</v>
-      </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>572</v>
       </c>
+      <c r="B170" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="B171" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="C171" s="0" t="s">
-        <v>633</v>
-      </c>
-      <c r="D171" s="0" t="s">
-        <v>634</v>
-      </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
         <v>572</v>
       </c>
+      <c r="B172" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
@@ -14128,24 +16623,230 @@
         <v>572</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="B174" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="C174" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="D174" s="0" t="s">
         <v>638</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D181" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D185" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D187" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D188" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D189" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D191" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/OSM features.xlsx
+++ b/OSM features.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="1105">
   <si>
     <t xml:space="preserve">subcategory</t>
   </si>
@@ -3325,6 +3325,9 @@
   </si>
   <si>
     <t xml:space="preserve">other landuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decorative greenery</t>
   </si>
   <si>
     <t xml:space="preserve">(to be) construction</t>
@@ -3443,8 +3446,8 @@
   </sheetPr>
   <dimension ref="A1:E859"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A202" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B263" activeCellId="0" sqref="B263"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C267" activeCellId="0" sqref="C267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12268,8 +12271,8 @@
   </sheetPr>
   <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B94" activeCellId="0" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13095,7 +13098,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>568</v>
+        <v>1101</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>493</v>
@@ -13123,7 +13126,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>493</v>
@@ -13137,7 +13140,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>493</v>
@@ -13151,7 +13154,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>493</v>
@@ -13165,7 +13168,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>640</v>
@@ -13179,7 +13182,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>640</v>
@@ -13193,7 +13196,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>640</v>
@@ -13207,7 +13210,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>640</v>
@@ -13221,7 +13224,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>640</v>
@@ -13235,7 +13238,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>640</v>
@@ -13277,7 +13280,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>640</v>
@@ -13305,12 +13308,12 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>640</v>
@@ -13324,7 +13327,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>640</v>
@@ -13338,7 +13341,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>640</v>
@@ -13352,7 +13355,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>640</v>
@@ -13366,7 +13369,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>640</v>
@@ -13380,7 +13383,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>640</v>
@@ -13394,7 +13397,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>640</v>
@@ -13408,7 +13411,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>640</v>
@@ -13422,7 +13425,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>640</v>
@@ -13436,7 +13439,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>640</v>
@@ -13450,7 +13453,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>640</v>
@@ -13464,7 +13467,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>640</v>
@@ -13478,7 +13481,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>640</v>
@@ -13492,7 +13495,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>640</v>
@@ -13506,7 +13509,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>640</v>
@@ -13520,7 +13523,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>640</v>
@@ -13534,7 +13537,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>640</v>
@@ -13548,7 +13551,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>640</v>
@@ -13562,7 +13565,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>640</v>
@@ -13576,12 +13579,12 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>640</v>
@@ -13595,7 +13598,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>640</v>
@@ -13609,7 +13612,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>640</v>
@@ -13623,7 +13626,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>640</v>
@@ -13637,7 +13640,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>640</v>
@@ -13651,7 +13654,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>640</v>
@@ -13665,7 +13668,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>640</v>
@@ -13679,7 +13682,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>640</v>
@@ -13693,7 +13696,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>640</v>
@@ -13707,7 +13710,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B135" s="0" t="s">
         <v>640</v>
@@ -13721,7 +13724,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B136" s="0" t="s">
         <v>640</v>
@@ -13735,7 +13738,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>640</v>
@@ -13749,7 +13752,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>640</v>
@@ -13763,7 +13766,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>640</v>
@@ -13777,7 +13780,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B140" s="0" t="s">
         <v>640</v>
@@ -13791,7 +13794,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>640</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B142" s="0" t="s">
         <v>640</v>
@@ -13819,7 +13822,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B143" s="0" t="s">
         <v>640</v>
@@ -13833,7 +13836,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B144" s="0" t="s">
         <v>640</v>
@@ -13847,7 +13850,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>640</v>
@@ -14652,7 +14655,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B218" s="0" t="s">
         <v>292</v>
@@ -14666,7 +14669,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B219" s="0" t="s">
         <v>292</v>
@@ -14680,7 +14683,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B220" s="0" t="s">
         <v>292</v>
@@ -14694,7 +14697,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B221" s="0" t="s">
         <v>292</v>
@@ -15325,7 +15328,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>493</v>
@@ -15339,7 +15342,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>493</v>
@@ -15353,7 +15356,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>493</v>
@@ -15364,7 +15367,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>640</v>
@@ -15378,7 +15381,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>640</v>
@@ -15392,7 +15395,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>640</v>
@@ -15406,7 +15409,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>640</v>
@@ -15420,7 +15423,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>640</v>
@@ -15434,7 +15437,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>640</v>
@@ -15476,7 +15479,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>640</v>
@@ -15504,12 +15507,12 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>640</v>
@@ -15523,7 +15526,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>640</v>
@@ -15537,7 +15540,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>640</v>
@@ -15551,7 +15554,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>640</v>
@@ -15565,7 +15568,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>640</v>
@@ -15579,7 +15582,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>640</v>
@@ -15593,7 +15596,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>640</v>
@@ -15607,7 +15610,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>640</v>
@@ -15621,7 +15624,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>640</v>
@@ -15635,7 +15638,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>640</v>
@@ -15649,7 +15652,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>640</v>
@@ -15663,7 +15666,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>640</v>
@@ -15677,7 +15680,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>640</v>
@@ -15691,7 +15694,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>640</v>
@@ -15705,7 +15708,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>640</v>
@@ -15719,7 +15722,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>640</v>
@@ -15733,7 +15736,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>640</v>
@@ -15747,7 +15750,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>640</v>
@@ -15761,7 +15764,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>640</v>
@@ -15775,12 +15778,12 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>640</v>
@@ -15794,7 +15797,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>640</v>
@@ -15808,7 +15811,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>640</v>
@@ -15822,7 +15825,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>640</v>
@@ -15836,7 +15839,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>640</v>
@@ -15850,7 +15853,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>640</v>
@@ -15864,7 +15867,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>640</v>
@@ -15878,7 +15881,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>640</v>
@@ -15892,7 +15895,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>640</v>
@@ -15906,7 +15909,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>640</v>
@@ -15920,7 +15923,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>640</v>
@@ -15934,7 +15937,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>640</v>
@@ -15948,7 +15951,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>640</v>
@@ -15962,7 +15965,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>640</v>
@@ -15976,7 +15979,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>640</v>
@@ -15990,7 +15993,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>640</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>640</v>
@@ -16018,7 +16021,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>640</v>
@@ -16032,7 +16035,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>640</v>
@@ -16046,7 +16049,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>640</v>

--- a/OSM features.xlsx
+++ b/OSM features.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3654" uniqueCount="1105">
   <si>
     <t xml:space="preserve">subcategory</t>
   </si>
@@ -3327,10 +3327,10 @@
     <t xml:space="preserve">other landuse</t>
   </si>
   <si>
-    <t xml:space="preserve">decorative greenery</t>
-  </si>
-  <si>
     <t xml:space="preserve">(to be) construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">nature</t>
@@ -3446,8 +3446,8 @@
   </sheetPr>
   <dimension ref="A1:E859"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C267" activeCellId="0" sqref="C267"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A569" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P43" activeCellId="0" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12271,8 +12271,8 @@
   </sheetPr>
   <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B94" activeCellId="0" sqref="B94"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D94" activeCellId="0" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12770,7 +12770,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>1098</v>
+        <v>568</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>493</v>
@@ -12841,7 +12841,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>1098</v>
+        <v>568</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>493</v>
@@ -13098,7 +13098,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>1101</v>
+        <v>568</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>493</v>
@@ -13126,7 +13126,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>493</v>
@@ -13140,7 +13140,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>493</v>
@@ -13154,7 +13154,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>493</v>
@@ -13164,6 +13164,11 @@
       </c>
       <c r="D93" s="0" t="s">
         <v>495</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="0" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15328,7 +15333,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>493</v>
@@ -15342,7 +15347,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>493</v>
@@ -15356,7 +15361,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>493</v>
